--- a/test_all.xlsx
+++ b/test_all.xlsx
@@ -921,26 +921,10 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1">
-      <x:c r="A1">
-        <x:v>123</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:1">
-      <x:c r="A2">
-        <x:v>12312</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:1">
-      <x:c r="A3">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:1">
-      <x:c r="A4">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
+    <x:row r="1" spans="1:1"/>
+    <x:row r="2" spans="1:1"/>
+    <x:row r="3" spans="1:1"/>
+    <x:row r="4" spans="1:1"/>
     <x:row r="5" spans="1:1">
       <x:c r="A5">
         <x:v>3</x:v>
@@ -970,9 +954,6 @@
       <x:c r="A1">
         <x:v>123123</x:v>
       </x:c>
-      <x:c r="B1" t="s">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="C1" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -980,9 +961,6 @@
     <x:row r="2" spans="1:3">
       <x:c r="A2">
         <x:v>123</x:v>
-      </x:c>
-      <x:c r="B2" t="s">
-        <x:v>1</x:v>
       </x:c>
       <x:c r="C2" t="s">
         <x:v>1</x:v>
